--- a/deployment/Omaha_Cal_Info_CP04OSSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP04OSSM_00003.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="525" windowWidth="20730" windowHeight="6900" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="1840" yWindow="520" windowWidth="22740" windowHeight="13940" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_FilterDatabase_0_0_0" localSheetId="3">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -728,7 +728,7 @@
     <numFmt numFmtId="169" formatCode="0.000E+00"/>
     <numFmt numFmtId="170" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1928,7 +1928,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2231,33 +2231,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="63" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="63" customWidth="1"/>
     <col min="2" max="2" width="16" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="63" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="64" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="63" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="64" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="64" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="63" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="63" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="63" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="63" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="63" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="63"/>
+    <col min="14" max="14" width="12.6640625" style="63" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="60" customFormat="1" ht="41.45">
+    <row r="1" spans="1:14" s="60" customFormat="1" ht="28">
       <c r="A1" s="55" t="s">
         <v>197</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14">
       <c r="A2" s="150" t="s">
         <v>199</v>
       </c>
@@ -2350,34 +2350,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="123" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="103" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="123" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="103" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="4.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="4.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="13.9">
+    <row r="1" spans="1:13" s="8" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2410,7 @@
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
     </row>
-    <row r="2" spans="1:13" ht="13.9">
+    <row r="2" spans="1:13">
       <c r="C2" s="19"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2418,7 +2418,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="14.45">
+    <row r="3" spans="1:13">
       <c r="A3" s="11" t="s">
         <v>113</v>
       </c>
@@ -2439,11 +2439,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13.9">
+    <row r="4" spans="1:13">
       <c r="C4" s="19"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="74" customFormat="1" ht="14.45">
+    <row r="5" spans="1:13" s="74" customFormat="1">
       <c r="A5" s="80" t="s">
         <v>146</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="74" customFormat="1" ht="14.45">
+    <row r="6" spans="1:13" s="74" customFormat="1">
       <c r="A6" s="80" t="s">
         <v>147</v>
       </c>
@@ -2483,13 +2483,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="46" customFormat="1" ht="13.9">
+    <row r="7" spans="1:13" s="46" customFormat="1">
       <c r="B7" s="123"/>
       <c r="C7" s="44"/>
       <c r="D7" s="47"/>
       <c r="E7" s="103"/>
     </row>
-    <row r="8" spans="1:13" ht="15">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>114</v>
       </c>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15">
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>114</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15">
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15">
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
         <v>114</v>
       </c>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15">
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15">
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>114</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15">
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>114</v>
       </c>
@@ -2755,13 +2755,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.9">
+    <row r="17" spans="1:9">
       <c r="C17" s="18"/>
       <c r="D17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45">
+    <row r="18" spans="1:9">
       <c r="A18" s="13" t="s">
         <v>115</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.9">
+    <row r="19" spans="1:9">
       <c r="A19" s="13"/>
       <c r="B19" s="104"/>
       <c r="C19" s="18"/>
@@ -2796,7 +2796,7 @@
       <c r="F19" s="14"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45">
+    <row r="20" spans="1:9">
       <c r="A20" s="13" t="s">
         <v>116</v>
       </c>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45">
+    <row r="21" spans="1:9">
       <c r="A21" s="49" t="s">
         <v>116</v>
       </c>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" s="46" customFormat="1" ht="13.9">
+    <row r="22" spans="1:9" s="46" customFormat="1">
       <c r="A22" s="104"/>
       <c r="B22" s="104"/>
       <c r="C22" s="105"/>
@@ -2862,7 +2862,7 @@
       <c r="G22" s="102"/>
       <c r="H22" s="107"/>
     </row>
-    <row r="23" spans="1:9" s="102" customFormat="1" ht="14.45">
+    <row r="23" spans="1:9" s="102" customFormat="1">
       <c r="A23" s="13" t="s">
         <v>136</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>39.937266666666666</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="102" customFormat="1" ht="14.45">
+    <row r="24" spans="1:9" s="102" customFormat="1">
       <c r="A24" s="49" t="s">
         <v>136</v>
       </c>
@@ -2916,13 +2916,13 @@
         <v>-70.886650000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.9">
+    <row r="25" spans="1:9">
       <c r="C25" s="18"/>
       <c r="D25" s="47"/>
       <c r="H25" s="47"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45">
+    <row r="26" spans="1:9">
       <c r="A26" s="16" t="s">
         <v>117</v>
       </c>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="I26" s="114"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45">
+    <row r="27" spans="1:9">
       <c r="A27" s="50" t="s">
         <v>117</v>
       </c>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="I27" s="114"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45">
+    <row r="28" spans="1:9">
       <c r="A28" s="50" t="s">
         <v>117</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="I28" s="114"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45">
+    <row r="29" spans="1:9">
       <c r="A29" s="50" t="s">
         <v>117</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="I29" s="114"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45">
+    <row r="30" spans="1:9">
       <c r="A30" s="50" t="s">
         <v>117</v>
       </c>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="I30" s="114"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45">
+    <row r="31" spans="1:9">
       <c r="A31" s="50" t="s">
         <v>117</v>
       </c>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="I31" s="114"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45">
+    <row r="32" spans="1:9">
       <c r="A32" s="50" t="s">
         <v>117</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.9">
+    <row r="33" spans="1:9">
       <c r="A33" s="19"/>
       <c r="B33" s="124"/>
       <c r="C33" s="18"/>
@@ -3130,7 +3130,7 @@
       <c r="H33" s="43"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="34" spans="1:9" s="46" customFormat="1">
       <c r="A34" s="16" t="s">
         <v>118</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.45">
+    <row r="35" spans="1:9">
       <c r="A35" s="50" t="s">
         <v>118</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="H35" s="120"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45">
+    <row r="36" spans="1:9">
       <c r="A36" s="50" t="s">
         <v>118</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="H36" s="120"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="14.45">
+    <row r="37" spans="1:9">
       <c r="A37" s="50" t="s">
         <v>118</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="H37" s="120"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="14.45">
+    <row r="38" spans="1:9">
       <c r="A38" s="50" t="s">
         <v>118</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="H38" s="121"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="14.45">
+    <row r="39" spans="1:9">
       <c r="A39" s="50" t="s">
         <v>118</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="H39" s="121"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45">
+    <row r="40" spans="1:9">
       <c r="A40" s="50" t="s">
         <v>118</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.9">
+    <row r="41" spans="1:9">
       <c r="A41" s="19"/>
       <c r="B41" s="124"/>
       <c r="C41" s="18"/>
@@ -3314,7 +3314,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="42" spans="1:9" s="46" customFormat="1">
       <c r="A42" s="20" t="s">
         <v>119</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.45">
+    <row r="43" spans="1:9">
       <c r="A43" s="51" t="s">
         <v>119</v>
       </c>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="14.45">
+    <row r="44" spans="1:9">
       <c r="A44" s="51" t="s">
         <v>119</v>
       </c>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="14.45">
+    <row r="45" spans="1:9">
       <c r="A45" s="51" t="s">
         <v>119</v>
       </c>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="14.45">
+    <row r="46" spans="1:9">
       <c r="A46" s="51" t="s">
         <v>119</v>
       </c>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="14.45">
+    <row r="47" spans="1:9">
       <c r="A47" s="51" t="s">
         <v>119</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="14.45">
+    <row r="48" spans="1:9">
       <c r="A48" s="51" t="s">
         <v>119</v>
       </c>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="14.45">
+    <row r="49" spans="1:9">
       <c r="A49" s="51" t="s">
         <v>119</v>
       </c>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="13.9">
+    <row r="50" spans="1:9">
       <c r="A50" s="19"/>
       <c r="B50" s="124"/>
       <c r="C50" s="18"/>
@@ -3550,7 +3550,7 @@
       <c r="H50" s="44"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" s="22" customFormat="1" ht="14.45">
+    <row r="51" spans="1:9" s="22" customFormat="1">
       <c r="A51" s="20" t="s">
         <v>120</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.45">
+    <row r="52" spans="1:9">
       <c r="A52" s="51" t="s">
         <v>120</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="H52" s="94"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="14.45">
+    <row r="53" spans="1:9">
       <c r="A53" s="51" t="s">
         <v>120</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="H53" s="90"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="14.45">
+    <row r="54" spans="1:9">
       <c r="A54" s="51" t="s">
         <v>120</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="H54" s="90"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="14.45">
+    <row r="55" spans="1:9">
       <c r="A55" s="51" t="s">
         <v>120</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="H55" s="90"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="14.45">
+    <row r="56" spans="1:9">
       <c r="A56" s="51" t="s">
         <v>120</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="H56" s="90"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="14.45">
+    <row r="57" spans="1:9">
       <c r="A57" s="51" t="s">
         <v>120</v>
       </c>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="14.45">
+    <row r="58" spans="1:9">
       <c r="A58" s="51" t="s">
         <v>120</v>
       </c>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="13.9">
+    <row r="59" spans="1:9">
       <c r="A59" s="19"/>
       <c r="B59" s="124"/>
       <c r="C59" s="18"/>
@@ -3758,7 +3758,7 @@
       <c r="H59" s="44"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="14.45">
+    <row r="60" spans="1:9">
       <c r="A60" s="24" t="s">
         <v>121</v>
       </c>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="14.45">
+    <row r="61" spans="1:9">
       <c r="A61" s="52" t="s">
         <v>121</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="14.45">
+    <row r="62" spans="1:9">
       <c r="A62" s="52" t="s">
         <v>121</v>
       </c>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="14.45">
+    <row r="63" spans="1:9">
       <c r="A63" s="52" t="s">
         <v>121</v>
       </c>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="14.45">
+    <row r="64" spans="1:9">
       <c r="A64" s="52" t="s">
         <v>121</v>
       </c>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="14.45">
+    <row r="65" spans="1:9">
       <c r="A65" s="52" t="s">
         <v>121</v>
       </c>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="14.45">
+    <row r="66" spans="1:9">
       <c r="A66" s="52" t="s">
         <v>121</v>
       </c>
@@ -3950,11 +3950,11 @@
         <v>108</v>
       </c>
       <c r="H66" s="142">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="14.45">
+    <row r="67" spans="1:9">
       <c r="A67" s="52" t="s">
         <v>121</v>
       </c>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="14.45">
+    <row r="68" spans="1:9">
       <c r="A68" s="52" t="s">
         <v>121</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.45">
+    <row r="69" spans="1:9">
       <c r="A69" s="52" t="s">
         <v>121</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="13.9">
+    <row r="70" spans="1:9">
       <c r="A70" s="19"/>
       <c r="B70" s="124"/>
       <c r="C70" s="18"/>
@@ -4054,7 +4054,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.45">
+    <row r="71" spans="1:9">
       <c r="A71" s="20" t="s">
         <v>122</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.45">
+    <row r="72" spans="1:9">
       <c r="A72" s="51" t="s">
         <v>122</v>
       </c>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="14.45">
+    <row r="73" spans="1:9">
       <c r="A73" s="51" t="s">
         <v>122</v>
       </c>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" s="42" customFormat="1" ht="14.45">
+    <row r="74" spans="1:9" s="42" customFormat="1">
       <c r="A74" s="51" t="s">
         <v>122</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>2.7125890000000001E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="42" customFormat="1" ht="14.45">
+    <row r="75" spans="1:9" s="42" customFormat="1">
       <c r="A75" s="51" t="s">
         <v>122</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>-1.1367169999999999E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="42" customFormat="1" ht="14.45">
+    <row r="76" spans="1:9" s="42" customFormat="1">
       <c r="A76" s="51" t="s">
         <v>122</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>1.7837020000000001E-7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="42" customFormat="1" ht="14.45">
+    <row r="77" spans="1:9" s="42" customFormat="1">
       <c r="A77" s="51" t="s">
         <v>122</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>95.923410000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="42" customFormat="1" ht="14.45">
+    <row r="78" spans="1:9" s="42" customFormat="1">
       <c r="A78" s="51" t="s">
         <v>122</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>-49.401780000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="42" customFormat="1" ht="14.45">
+    <row r="79" spans="1:9" s="42" customFormat="1">
       <c r="A79" s="51" t="s">
         <v>122</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>-1.1059079999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="42" customFormat="1" ht="14.45">
+    <row r="80" spans="1:9" s="42" customFormat="1">
       <c r="A80" s="51" t="s">
         <v>122</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>521778.7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="81" spans="1:8" s="42" customFormat="1">
       <c r="A81" s="51" t="s">
         <v>122</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>-131.50190000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="82" spans="1:8" s="42" customFormat="1">
       <c r="A82" s="51" t="s">
         <v>122</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>-1.342868</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="83" spans="1:8" s="42" customFormat="1">
       <c r="A83" s="51" t="s">
         <v>122</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>25.059249999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="84" spans="1:8" s="42" customFormat="1">
       <c r="A84" s="51" t="s">
         <v>122</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>-3.5E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="85" spans="1:8" s="42" customFormat="1">
       <c r="A85" s="51" t="s">
         <v>122</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="86" spans="1:8" s="42" customFormat="1">
       <c r="A86" s="51" t="s">
         <v>122</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>-2.1755659999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="87" spans="1:8" s="42" customFormat="1">
       <c r="A87" s="51" t="s">
         <v>122</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>6.1265440000000005E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="88" spans="1:8" s="42" customFormat="1">
       <c r="A88" s="51" t="s">
         <v>122</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>9.4018400000000003E-12</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="89" spans="1:8" s="42" customFormat="1">
       <c r="A89" s="51" t="s">
         <v>122</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>-0.98768909999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="90" spans="1:8" s="42" customFormat="1">
       <c r="A90" s="51" t="s">
         <v>122</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>0.13625029999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="91" spans="1:8" s="42" customFormat="1">
       <c r="A91" s="51" t="s">
         <v>122</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>-1.8744329999999999E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="92" spans="1:8" s="42" customFormat="1">
       <c r="A92" s="51" t="s">
         <v>122</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>3.1745370000000001E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="93" spans="1:8" s="42" customFormat="1">
       <c r="A93" s="51" t="s">
         <v>122</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="94" spans="1:8" s="42" customFormat="1">
       <c r="A94" s="51" t="s">
         <v>122</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="42" customFormat="1" ht="13.9">
+    <row r="95" spans="1:8" s="42" customFormat="1">
       <c r="A95" s="45"/>
       <c r="B95" s="45"/>
       <c r="C95" s="18"/>
@@ -4717,7 +4717,7 @@
       <c r="G95" s="43"/>
       <c r="H95" s="41"/>
     </row>
-    <row r="96" spans="1:8" s="42" customFormat="1" ht="14.45">
+    <row r="96" spans="1:8" s="42" customFormat="1">
       <c r="A96" s="20" t="s">
         <v>137</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>39.937266666666666</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="97" spans="1:9" s="46" customFormat="1">
       <c r="A97" s="51" t="s">
         <v>137</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>-70.886650000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="14.45">
+    <row r="98" spans="1:9">
       <c r="A98" s="51" t="s">
         <v>137</v>
       </c>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="14.45">
+    <row r="99" spans="1:9">
       <c r="A99" s="51" t="s">
         <v>137</v>
       </c>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="100" spans="1:9" s="46" customFormat="1">
       <c r="A100" s="51" t="s">
         <v>137</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>-9.3045029999999995E-7</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="101" spans="1:9" s="46" customFormat="1">
       <c r="A101" s="51" t="s">
         <v>137</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>1.6831470000000001E-7</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="102" spans="1:9" s="46" customFormat="1">
       <c r="A102" s="51" t="s">
         <v>137</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>147.501</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="103" spans="1:9" s="46" customFormat="1">
       <c r="A103" s="51" t="s">
         <v>137</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>-60.82685</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="104" spans="1:9" s="46" customFormat="1">
       <c r="A104" s="51" t="s">
         <v>137</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>-7.2821700000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="105" spans="1:9" s="46" customFormat="1">
       <c r="A105" s="51" t="s">
         <v>137</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>527913</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="106" spans="1:9" s="46" customFormat="1">
       <c r="A106" s="51" t="s">
         <v>137</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>54.544049999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="107" spans="1:9" s="46" customFormat="1">
       <c r="A107" s="51" t="s">
         <v>137</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>0.72972610000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="108" spans="1:9" s="46" customFormat="1">
       <c r="A108" s="51" t="s">
         <v>137</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>25.131250000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="109" spans="1:9" s="46" customFormat="1">
       <c r="A109" s="51" t="s">
         <v>137</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>-3.5E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="110" spans="1:9" s="46" customFormat="1">
       <c r="A110" s="51" t="s">
         <v>137</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="111" spans="1:9" s="46" customFormat="1">
       <c r="A111" s="51" t="s">
         <v>137</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>5.1425090000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="112" spans="1:9" s="46" customFormat="1">
       <c r="A112" s="51" t="s">
         <v>137</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>3.1939709999999999E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="46" customFormat="1" ht="14.45">
+    <row r="113" spans="1:10" s="46" customFormat="1">
       <c r="A113" s="51" t="s">
         <v>137</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>9.0759849999999996E-11</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="46" customFormat="1" ht="14.45">
+    <row r="114" spans="1:10" s="46" customFormat="1">
       <c r="A114" s="51" t="s">
         <v>137</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>-0.97949410000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="46" customFormat="1" ht="14.45">
+    <row r="115" spans="1:10" s="46" customFormat="1">
       <c r="A115" s="51" t="s">
         <v>137</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>0.1559218</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="46" customFormat="1" ht="14.45">
+    <row r="116" spans="1:10" s="46" customFormat="1">
       <c r="A116" s="51" t="s">
         <v>137</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>-2.006492E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="46" customFormat="1" ht="14.45">
+    <row r="117" spans="1:10" s="46" customFormat="1">
       <c r="A117" s="51" t="s">
         <v>137</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>3.9465760000000001E-5</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="46" customFormat="1" ht="14.45">
+    <row r="118" spans="1:10" s="46" customFormat="1">
       <c r="A118" s="51" t="s">
         <v>137</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="46" customFormat="1" ht="14.45">
+    <row r="119" spans="1:10" s="46" customFormat="1">
       <c r="A119" s="51" t="s">
         <v>137</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="46" customFormat="1" ht="13.9">
+    <row r="120" spans="1:10" s="46" customFormat="1">
       <c r="A120" s="19"/>
       <c r="B120" s="124"/>
       <c r="C120" s="18"/>
@@ -5377,7 +5377,7 @@
       <c r="G120" s="19"/>
       <c r="H120" s="19"/>
     </row>
-    <row r="121" spans="1:10" s="46" customFormat="1" ht="14.45">
+    <row r="121" spans="1:10" s="46" customFormat="1">
       <c r="A121" s="17" t="s">
         <v>123</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>39.937266666666666</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="14.45">
+    <row r="122" spans="1:10">
       <c r="A122" s="53" t="s">
         <v>123</v>
       </c>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:10" ht="14.45">
+    <row r="123" spans="1:10">
       <c r="A123" s="53" t="s">
         <v>123</v>
       </c>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="13.9">
+    <row r="124" spans="1:10">
       <c r="A124" s="19"/>
       <c r="B124" s="124"/>
       <c r="C124" s="18"/>
@@ -5468,7 +5468,7 @@
       <c r="H124" s="31"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:10" s="46" customFormat="1" ht="14.45">
+    <row r="125" spans="1:10" s="46" customFormat="1">
       <c r="A125" s="17" t="s">
         <v>124</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>39.937266666666666</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="14.45">
+    <row r="126" spans="1:10">
       <c r="A126" s="53" t="s">
         <v>124</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>-70.886650000000003</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="14.45">
+    <row r="127" spans="1:10">
       <c r="A127" s="53" t="s">
         <v>124</v>
       </c>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:10" ht="13.9">
+    <row r="128" spans="1:10">
       <c r="A128" s="19"/>
       <c r="B128" s="124"/>
       <c r="C128" s="18"/>
@@ -5567,7 +5567,7 @@
       <c r="H128" s="30"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" s="46" customFormat="1" ht="14.45">
+    <row r="129" spans="1:9" s="46" customFormat="1">
       <c r="A129" s="156" t="s">
         <v>181</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="14.45">
+    <row r="130" spans="1:9">
       <c r="A130" s="52" t="s">
         <v>181</v>
       </c>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" ht="14.45">
+    <row r="131" spans="1:9">
       <c r="A131" s="52" t="s">
         <v>181</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="14.45">
+    <row r="132" spans="1:9">
       <c r="A132" s="52" t="s">
         <v>181</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="14.45">
+    <row r="133" spans="1:9">
       <c r="A133" s="52" t="s">
         <v>181</v>
       </c>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" ht="14.45">
+    <row r="134" spans="1:9">
       <c r="A134" s="52" t="s">
         <v>181</v>
       </c>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" ht="14.45">
+    <row r="135" spans="1:9">
       <c r="A135" s="52" t="s">
         <v>181</v>
       </c>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" ht="13.9">
+    <row r="136" spans="1:9">
       <c r="A136" s="19"/>
       <c r="B136" s="124"/>
       <c r="C136" s="18"/>
@@ -5776,7 +5776,7 @@
       <c r="H136" s="19"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" ht="14.45">
+    <row r="137" spans="1:9">
       <c r="A137" s="34" t="s">
         <v>180</v>
       </c>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="14.45">
+    <row r="138" spans="1:9">
       <c r="A138" s="54" t="s">
         <v>180</v>
       </c>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" ht="14.45">
+    <row r="139" spans="1:9">
       <c r="A139" s="54" t="s">
         <v>180</v>
       </c>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="13.9">
+    <row r="140" spans="1:9">
       <c r="A140" s="19"/>
       <c r="B140" s="124"/>
       <c r="C140" s="18"/>
@@ -5870,7 +5870,7 @@
       <c r="H140" s="19"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="14.45">
+    <row r="141" spans="1:9">
       <c r="A141" s="36" t="s">
         <v>138</v>
       </c>
@@ -5898,7 +5898,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="14.45">
+    <row r="142" spans="1:9">
       <c r="A142" s="54" t="s">
         <v>138</v>
       </c>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="14.45">
+    <row r="143" spans="1:9">
       <c r="A143" s="54" t="s">
         <v>138</v>
       </c>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="14.45">
+    <row r="144" spans="1:9">
       <c r="A144" s="54" t="s">
         <v>138</v>
       </c>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="14.45">
+    <row r="145" spans="1:15">
       <c r="A145" s="54" t="s">
         <v>138</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="I145" s="1"/>
       <c r="O145" s="22"/>
     </row>
-    <row r="146" spans="1:15" ht="14.45">
+    <row r="146" spans="1:15">
       <c r="A146" s="54" t="s">
         <v>138</v>
       </c>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="14.45">
+    <row r="147" spans="1:15">
       <c r="A147" s="54" t="s">
         <v>138</v>
       </c>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13.9">
+    <row r="148" spans="1:15">
       <c r="A148" s="19"/>
       <c r="B148" s="124"/>
       <c r="C148" s="18"/>
@@ -6077,7 +6077,7 @@
       <c r="H148" s="19"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="14.45">
+    <row r="149" spans="1:15">
       <c r="A149" s="36" t="s">
         <v>135</v>
       </c>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="14.45">
+    <row r="150" spans="1:15">
       <c r="A150" s="54" t="s">
         <v>135</v>
       </c>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="14.45">
+    <row r="151" spans="1:15">
       <c r="A151" s="54" t="s">
         <v>135</v>
       </c>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="14.45">
+    <row r="152" spans="1:15">
       <c r="A152" s="54" t="s">
         <v>135</v>
       </c>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="14.45">
+    <row r="153" spans="1:15">
       <c r="A153" s="54" t="s">
         <v>135</v>
       </c>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="14.45">
+    <row r="154" spans="1:15">
       <c r="A154" s="54" t="s">
         <v>135</v>
       </c>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="14.45">
+    <row r="155" spans="1:15">
       <c r="A155" s="54" t="s">
         <v>135</v>
       </c>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="14.45">
+    <row r="156" spans="1:15">
       <c r="A156" s="54" t="s">
         <v>135</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="14.45">
+    <row r="157" spans="1:15">
       <c r="A157" s="54" t="s">
         <v>135</v>
       </c>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="14.45">
+    <row r="158" spans="1:15">
       <c r="A158" s="54" t="s">
         <v>135</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="14.45">
+    <row r="159" spans="1:15">
       <c r="A159" s="54" t="s">
         <v>135</v>
       </c>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="14.45">
+    <row r="160" spans="1:15">
       <c r="A160" s="54" t="s">
         <v>135</v>
       </c>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="14.45">
+    <row r="161" spans="1:15">
       <c r="A161" s="54" t="s">
         <v>135</v>
       </c>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="14.45">
+    <row r="162" spans="1:15">
       <c r="A162" s="54" t="s">
         <v>135</v>
       </c>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="14.45">
+    <row r="163" spans="1:15">
       <c r="A163" s="54" t="s">
         <v>135</v>
       </c>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="14.45">
+    <row r="164" spans="1:15">
       <c r="A164" s="54" t="s">
         <v>135</v>
       </c>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="14.45">
+    <row r="165" spans="1:15">
       <c r="A165" s="54" t="s">
         <v>135</v>
       </c>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="14.45">
+    <row r="166" spans="1:15">
       <c r="A166" s="54" t="s">
         <v>135</v>
       </c>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:15" s="46" customFormat="1" ht="13.9">
+    <row r="167" spans="1:15" s="46" customFormat="1">
       <c r="A167" s="19"/>
       <c r="B167" s="124"/>
       <c r="C167" s="18"/>
@@ -6595,7 +6595,7 @@
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
     </row>
-    <row r="168" spans="1:15" s="46" customFormat="1" ht="13.9">
+    <row r="168" spans="1:15" s="46" customFormat="1">
       <c r="B168" s="123"/>
       <c r="E168" s="123"/>
       <c r="I168" s="36" t="s">
@@ -6620,7 +6620,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="13.9">
+    <row r="169" spans="1:15">
       <c r="I169" s="54" t="s">
         <v>125</v>
       </c>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="N169" s="92"/>
     </row>
-    <row r="170" spans="1:15" ht="13.9">
+    <row r="170" spans="1:15">
       <c r="I170" s="54" t="s">
         <v>125</v>
       </c>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="N170" s="92"/>
     </row>
-    <row r="171" spans="1:15" ht="13.9">
+    <row r="171" spans="1:15">
       <c r="I171" s="54" t="s">
         <v>125</v>
       </c>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="N171" s="92"/>
     </row>
-    <row r="172" spans="1:15" ht="13.9">
+    <row r="172" spans="1:15">
       <c r="I172" s="54" t="s">
         <v>125</v>
       </c>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="N172" s="93"/>
     </row>
-    <row r="173" spans="1:15" ht="13.9">
+    <row r="173" spans="1:15">
       <c r="I173" s="54" t="s">
         <v>125</v>
       </c>
@@ -6720,7 +6720,7 @@
       </c>
       <c r="N173" s="93"/>
     </row>
-    <row r="174" spans="1:15" ht="13.9">
+    <row r="174" spans="1:15">
       <c r="I174" s="54" t="s">
         <v>125</v>
       </c>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="N174" s="93"/>
     </row>
-    <row r="175" spans="1:15" ht="13.9">
+    <row r="175" spans="1:15">
       <c r="I175" s="54" t="s">
         <v>125</v>
       </c>
@@ -6768,7 +6768,7 @@
       <c r="F176" s="46"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:21" s="123" customFormat="1" ht="15">
+    <row r="177" spans="1:21" s="123" customFormat="1">
       <c r="A177" s="157" t="s">
         <v>141</v>
       </c>
@@ -6833,7 +6833,7 @@
       <c r="H180" s="47"/>
       <c r="I180" s="72"/>
     </row>
-    <row r="181" spans="1:21" s="46" customFormat="1" ht="15">
+    <row r="181" spans="1:21" s="46" customFormat="1">
       <c r="A181" s="20" t="s">
         <v>126</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="182" spans="1:21" s="46" customFormat="1" ht="15">
+    <row r="182" spans="1:21" s="46" customFormat="1">
       <c r="A182" s="19" t="s">
         <v>127</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="H182" s="37"/>
       <c r="I182" s="72"/>
     </row>
-    <row r="183" spans="1:21" ht="15">
+    <row r="183" spans="1:21">
       <c r="A183" s="19" t="s">
         <v>128</v>
       </c>
@@ -6900,7 +6900,7 @@
       <c r="H183" s="37"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:21" ht="15">
+    <row r="184" spans="1:21">
       <c r="A184" s="19"/>
       <c r="B184" s="124"/>
       <c r="C184" s="18"/>
@@ -6910,7 +6910,7 @@
       <c r="H184" s="37"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:21" ht="15">
+    <row r="185" spans="1:21">
       <c r="A185" s="20" t="s">
         <v>129</v>
       </c>
@@ -6931,7 +6931,7 @@
       <c r="H185" s="46"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:21" ht="15">
+    <row r="186" spans="1:21">
       <c r="A186" s="19" t="s">
         <v>130</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="H186" s="46"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:21" ht="15">
+    <row r="187" spans="1:21">
       <c r="A187" s="19" t="s">
         <v>131</v>
       </c>
@@ -6987,7 +6987,7 @@
       <c r="T187" s="74"/>
       <c r="U187" s="74"/>
     </row>
-    <row r="188" spans="1:21" ht="15">
+    <row r="188" spans="1:21">
       <c r="A188" s="19" t="s">
         <v>132</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="T188" s="74"/>
       <c r="U188" s="74"/>
     </row>
-    <row r="189" spans="1:21" ht="15">
+    <row r="189" spans="1:21">
       <c r="A189" s="19" t="s">
         <v>133</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="T189" s="74"/>
       <c r="U189" s="74"/>
     </row>
-    <row r="190" spans="1:21" ht="15">
+    <row r="190" spans="1:21">
       <c r="A190" s="19" t="s">
         <v>134</v>
       </c>
@@ -7668,14 +7668,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="36" width="8.85546875" style="152"/>
-    <col min="37" max="37" width="10.85546875" style="152" customWidth="1"/>
-    <col min="38" max="16384" width="8.85546875" style="152"/>
+    <col min="1" max="36" width="8.83203125" style="152"/>
+    <col min="37" max="37" width="10.83203125" style="152" customWidth="1"/>
+    <col min="38" max="16384" width="8.83203125" style="152"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.45">
+    <row r="1" spans="1:37">
       <c r="A1" s="152">
         <v>-3.6394000000000003E-2</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>9.6710000000000008E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="14.45">
+    <row r="2" spans="1:37">
       <c r="A2" s="152">
         <v>-4.0287000000000003E-2</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>7.8449999999999995E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="14.45">
+    <row r="3" spans="1:37">
       <c r="A3" s="152">
         <v>-3.9969999999999999E-2</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>6.2919999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="14.45">
+    <row r="4" spans="1:37">
       <c r="A4" s="152">
         <v>-3.7526999999999998E-2</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>5.5659999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="14.45">
+    <row r="5" spans="1:37">
       <c r="A5" s="152">
         <v>-3.4967999999999999E-2</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>4.0899999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="14.45">
+    <row r="6" spans="1:37">
       <c r="A6" s="152">
         <v>-3.1949999999999999E-2</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>4.2040000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="14.45">
+    <row r="7" spans="1:37">
       <c r="A7" s="152">
         <v>-2.9241E-2</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>3.8790000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="14.45">
+    <row r="8" spans="1:37">
       <c r="A8" s="152">
         <v>-2.7379000000000001E-2</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>2.6510000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="14.45">
+    <row r="9" spans="1:37">
       <c r="A9" s="152">
         <v>-2.4159E-2</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>3.0730000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="14.45">
+    <row r="10" spans="1:37">
       <c r="A10" s="152">
         <v>-2.3392E-2</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>2.6900000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="14.45">
+    <row r="11" spans="1:37">
       <c r="A11" s="152">
         <v>-2.3553000000000001E-2</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>2.3310000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="14.45">
+    <row r="12" spans="1:37">
       <c r="A12" s="152">
         <v>-2.1458000000000001E-2</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="14.45">
+    <row r="13" spans="1:37">
       <c r="A13" s="152">
         <v>-2.0750999999999999E-2</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>2.7109999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="14.45">
+    <row r="14" spans="1:37">
       <c r="A14" s="152">
         <v>-1.9878E-2</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>2.7390000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="14.45">
+    <row r="15" spans="1:37">
       <c r="A15" s="152">
         <v>-2.0048E-2</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>2.9429999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="14.45">
+    <row r="16" spans="1:37">
       <c r="A16" s="152">
         <v>-1.8939999999999999E-2</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>3.1840000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.45">
+    <row r="17" spans="1:37">
       <c r="A17" s="152">
         <v>-1.9503E-2</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>3.2399999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="14.45">
+    <row r="18" spans="1:37">
       <c r="A18" s="152">
         <v>-1.8976E-2</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>3.4090000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="14.45">
+    <row r="19" spans="1:37">
       <c r="A19" s="152">
         <v>-1.8759999999999999E-2</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>3.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="14.45">
+    <row r="20" spans="1:37">
       <c r="A20" s="152">
         <v>-1.8489999999999999E-2</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>3.6210000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="14.45">
+    <row r="21" spans="1:37">
       <c r="A21" s="152">
         <v>-1.8685E-2</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>3.6089999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="14.45">
+    <row r="22" spans="1:37">
       <c r="A22" s="152">
         <v>-1.8529E-2</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>3.4889999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="14.45">
+    <row r="23" spans="1:37">
       <c r="A23" s="152">
         <v>-1.8255E-2</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>3.5270000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="14.45">
+    <row r="24" spans="1:37">
       <c r="A24" s="152">
         <v>-1.8260999999999999E-2</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>3.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="14.45">
+    <row r="25" spans="1:37">
       <c r="A25" s="152">
         <v>-1.7892999999999999E-2</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>3.48E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="14.45">
+    <row r="26" spans="1:37">
       <c r="A26" s="152">
         <v>-1.7819000000000002E-2</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>3.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="14.45">
+    <row r="27" spans="1:37">
       <c r="A27" s="152">
         <v>-1.7600999999999999E-2</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>3.4199999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="14.45">
+    <row r="28" spans="1:37">
       <c r="A28" s="152">
         <v>-1.7288000000000001E-2</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="14.45">
+    <row r="29" spans="1:37">
       <c r="A29" s="152">
         <v>-1.7193E-2</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>3.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="14.45">
+    <row r="30" spans="1:37">
       <c r="A30" s="152">
         <v>-1.7170999999999999E-2</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>3.124E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="14.45">
+    <row r="31" spans="1:37">
       <c r="A31" s="152">
         <v>-1.6945000000000002E-2</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>3.1459999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="14.45">
+    <row r="32" spans="1:37">
       <c r="A32" s="152">
         <v>-1.7170000000000001E-2</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>3.1110000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="14.45">
+    <row r="33" spans="1:37">
       <c r="A33" s="152">
         <v>-1.7401E-2</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>3.0899999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.45">
+    <row r="34" spans="1:37">
       <c r="A34" s="152">
         <v>-1.7645999999999998E-2</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>3.0040000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="14.45">
+    <row r="35" spans="1:37">
       <c r="A35" s="152">
         <v>-1.7874000000000001E-2</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>2.9859999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="14.45">
+    <row r="36" spans="1:37">
       <c r="A36" s="152">
         <v>-1.8217000000000001E-2</v>
       </c>
@@ -17072,14 +17072,14 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="36" width="8.85546875" style="151"/>
+    <col min="1" max="36" width="8.83203125" style="151"/>
     <col min="37" max="37" width="15" style="151" customWidth="1"/>
-    <col min="38" max="16384" width="8.85546875" style="151"/>
+    <col min="38" max="16384" width="8.83203125" style="151"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="1" spans="1:37" s="150" customFormat="1">
       <c r="A1" s="150">
         <v>2.5904E-2</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>-2.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="2" spans="1:37" s="150" customFormat="1">
       <c r="A2" s="150">
         <v>1.5284000000000001E-2</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>-1.9397999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="3" spans="1:37" s="150" customFormat="1">
       <c r="A3" s="150">
         <v>1.1613999999999999E-2</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>-1.6123999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="4" spans="1:37" s="150" customFormat="1">
       <c r="A4" s="150">
         <v>6.7390000000000002E-3</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>-1.5254999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="5" spans="1:37" s="150" customFormat="1">
       <c r="A5" s="150">
         <v>3.555E-3</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>-1.3656E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="6" spans="1:37" s="150" customFormat="1">
       <c r="A6" s="150">
         <v>3.653E-3</v>
       </c>
@@ -17757,7 +17757,7 @@
         <v>-1.2449999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="7" spans="1:37" s="150" customFormat="1">
       <c r="A7" s="150">
         <v>2.3609999999999998E-3</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>-1.1013999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="8" spans="1:37" s="150" customFormat="1">
       <c r="A8" s="150">
         <v>1.5460000000000001E-3</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>-1.0081E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="9" spans="1:37" s="150" customFormat="1">
       <c r="A9" s="150">
         <v>1.6410000000000001E-3</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>-9.11E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="10" spans="1:37" s="150" customFormat="1">
       <c r="A10" s="150">
         <v>1.3990000000000001E-3</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>-7.8399999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="11" spans="1:37" s="150" customFormat="1">
       <c r="A11" s="150">
         <v>-7.5500000000000003E-4</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>-7.7869999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="12" spans="1:37" s="150" customFormat="1">
       <c r="A12" s="150">
         <v>2.3499999999999999E-4</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>-6.7229999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="13" spans="1:37" s="150" customFormat="1">
       <c r="A13" s="150">
         <v>-1.266E-3</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>-5.9369999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="14" spans="1:37" s="150" customFormat="1">
       <c r="A14" s="150">
         <v>-3.2169999999999998E-3</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>-5.3470000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="15" spans="1:37" s="150" customFormat="1">
       <c r="A15" s="150">
         <v>-5.012E-3</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>-5.0759999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="16" spans="1:37" s="150" customFormat="1">
       <c r="A16" s="150">
         <v>-6.9880000000000003E-3</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>-4.7089999999999996E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="17" spans="1:37" s="150" customFormat="1">
       <c r="A17" s="150">
         <v>-8.5310000000000004E-3</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>-4.5890000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="18" spans="1:37" s="150" customFormat="1">
       <c r="A18" s="150">
         <v>-8.7519999999999994E-3</v>
       </c>
@@ -19113,7 +19113,7 @@
         <v>-3.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="19" spans="1:37" s="150" customFormat="1">
       <c r="A19" s="150">
         <v>-1.0522E-2</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>-3.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="20" spans="1:37" s="150" customFormat="1">
       <c r="A20" s="150">
         <v>-1.0861000000000001E-2</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>-3.5560000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="21" spans="1:37" s="150" customFormat="1">
       <c r="A21" s="150">
         <v>-1.1039999999999999E-2</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>-2.849E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="22" spans="1:37" s="150" customFormat="1">
       <c r="A22" s="150">
         <v>-1.1956E-2</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>-3.1389999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="23" spans="1:37" s="150" customFormat="1">
       <c r="A23" s="150">
         <v>-1.1604E-2</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>-2.5799999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="24" spans="1:37" s="150" customFormat="1">
       <c r="A24" s="150">
         <v>-1.2075000000000001E-2</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>-2.3609999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="25" spans="1:37" s="150" customFormat="1">
       <c r="A25" s="150">
         <v>-1.2518E-2</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>-2.5430000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="26" spans="1:37" s="150" customFormat="1">
       <c r="A26" s="150">
         <v>-1.1844E-2</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>-1.884E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="27" spans="1:37" s="150" customFormat="1">
       <c r="A27" s="150">
         <v>-1.2619999999999999E-2</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>-1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="28" spans="1:37" s="150" customFormat="1">
       <c r="A28" s="150">
         <v>-1.2980999999999999E-2</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>-2.2490000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="29" spans="1:37" s="150" customFormat="1">
       <c r="A29" s="150">
         <v>-1.2409999999999999E-2</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>-1.346E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="30" spans="1:37" s="150" customFormat="1">
       <c r="A30" s="150">
         <v>-1.3256E-2</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>-1.7229999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="31" spans="1:37" s="150" customFormat="1">
       <c r="A31" s="150">
         <v>-1.3831E-2</v>
       </c>
@@ -20582,7 +20582,7 @@
         <v>-1.9940000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="32" spans="1:37" s="150" customFormat="1">
       <c r="A32" s="150">
         <v>-1.3244000000000001E-2</v>
       </c>
@@ -20695,7 +20695,7 @@
         <v>-1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="33" spans="1:37" s="150" customFormat="1">
       <c r="A33" s="150">
         <v>-1.4492E-2</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>-1.403E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="34" spans="1:37" s="150" customFormat="1">
       <c r="A34" s="150">
         <v>-1.5900000000000001E-2</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>-1.864E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="35" spans="1:37" s="150" customFormat="1">
       <c r="A35" s="150">
         <v>-1.5136999999999999E-2</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>-1.1609999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="150" customFormat="1" ht="14.45">
+    <row r="36" spans="1:37" s="150" customFormat="1">
       <c r="A36" s="150">
         <v>-1.5507E-2</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP04OSSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP04OSSM_00003.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="525" windowWidth="20730" windowHeight="6900" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="1830" yWindow="525" windowWidth="20730" windowHeight="6900" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -2272,8 +2272,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2352,7 +2352,9 @@
       <c r="F2" s="67">
         <v>0.81736111111111109</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="61">
+        <v>42503</v>
+      </c>
       <c r="H2" s="11" t="s">
         <v>176</v>
       </c>
@@ -2391,7 +2393,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
@@ -3526,7 +3528,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
         <v>118</v>
       </c>
@@ -3554,7 +3556,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
         <v>118</v>
       </c>
@@ -5602,7 +5604,7 @@
       <c r="H128" s="29"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="45" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A129" s="154" t="s">
         <v>180</v>
       </c>
@@ -5629,7 +5631,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A130" s="51" t="s">
         <v>180</v>
       </c>
